--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_724.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_724.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32240-d239823-Reviews-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Studio-6-Commerce-CA.h896001.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_724.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_724.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,447 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r564041246-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>32240</t>
+  </si>
+  <si>
+    <t>239823</t>
+  </si>
+  <si>
+    <t>564041246</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>We and our dog enjoyed the place</t>
+  </si>
+  <si>
+    <t>We were searching for a place in the area that accepted our dog. The reviews for the places in the area that took dogs were pretty bleak. This was the top of the ratings list. We would agree. We messed up the date and called the desk and they graciously changed for us. Room was clean and furnishings were a a notch above what we expected.  And a kitchen to boot. It is near a busy road but the sound was muffled enough that was not an issue. There were a couple grass areas for the dog and I am embarrassed that other dog owners had not picked up after themselves. If we want hotels to accept dogs we have a responsibility to not abuse that obligation. The price was very reasonable for this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>GuestXperienceTeam, Guest Relations Manager at Studio 6 Commerce, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>We were searching for a place in the area that accepted our dog. The reviews for the places in the area that took dogs were pretty bleak. This was the top of the ratings list. We would agree. We messed up the date and called the desk and they graciously changed for us. Room was clean and furnishings were a a notch above what we expected.  And a kitchen to boot. It is near a busy road but the sound was muffled enough that was not an issue. There were a couple grass areas for the dog and I am embarrassed that other dog owners had not picked up after themselves. If we want hotels to accept dogs we have a responsibility to not abuse that obligation. The price was very reasonable for this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r536941949-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>536941949</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Room</t>
+  </si>
+  <si>
+    <t>The room has many utilities, good kitchen with stove, microwave, refrigerator, dishes that permites you to cook and keep your food fresh.  Also it has a good bed, clean towels, wifi conection, so you can work there if you want.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>GuestXperienceTeam, Guest Relations Manager at Studio 6 Commerce, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>The room has many utilities, good kitchen with stove, microwave, refrigerator, dishes that permites you to cook and keep your food fresh.  Also it has a good bed, clean towels, wifi conection, so you can work there if you want.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r526400162-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>526400162</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Upgraded.  Clean.  Nice kitchen with full size fridge.</t>
+  </si>
+  <si>
+    <t>I was pleased with the room - it was clean and well equipped.  Directv.  Full size top freezer fridge.  The area was not the greatest (next to a freeway, somewhat shady characters in the vicinity).  But people, chill.  The price is very good.  The room is clean and the room was quiet despite being next to the 5 fwy.  You're not there to get to know the neighbors to take it for what it is - a rather inexpensive room that is actually quite nice.  You'll be gone in a day or 2 so don't be too picky!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>GuestXperienceTeam, Guest Relations Manager at Studio 6 Commerce, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>I was pleased with the room - it was clean and well equipped.  Directv.  Full size top freezer fridge.  The area was not the greatest (next to a freeway, somewhat shady characters in the vicinity).  But people, chill.  The price is very good.  The room is clean and the room was quiet despite being next to the 5 fwy.  You're not there to get to know the neighbors to take it for what it is - a rather inexpensive room that is actually quite nice.  You'll be gone in a day or 2 so don't be too picky!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r495881270-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>495881270</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>My recent stay on the East Side</t>
+  </si>
+  <si>
+    <t>Hotel is in a rough area of LA. And being by msyelf it didn't feel safe. The hotel does not have a laundry room for guests or a pool. And the parking lot is very SMALL. With that said the staff and owners are really nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>GuestXperienceTeam, Guest Relations Manager at Studio 6 Commerce, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is in a rough area of LA. And being by msyelf it didn't feel safe. The hotel does not have a laundry room for guests or a pool. And the parking lot is very SMALL. With that said the staff and owners are really nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r486150276-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>486150276</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Freshly remodeled rooms, very clean and updated would definitely stay again. Very happy with room. Has standard full size fridge  stove has the feel of a small studio. Bathroom are updated and very clean. I love the hardwood floors no more smelly carpets.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>GuestXperienceTeam, Guest Relations Manager at Studio 6 Commerce, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Freshly remodeled rooms, very clean and updated would definitely stay again. Very happy with room. Has standard full size fridge  stove has the feel of a small studio. Bathroom are updated and very clean. I love the hardwood floors no more smelly carpets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r472573780-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>472573780</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Enjoy my stay here very much. The front staff was nice and friendly. The rooms are a good size very comfortable bed and a nice bathroom with a good shower head . Nice kitchen, with a full size fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>GuestXperienceTeam, Guest Relations Manager at Studio 6 Commerce, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Enjoy my stay here very much. The front staff was nice and friendly. The rooms are a good size very comfortable bed and a nice bathroom with a good shower head . Nice kitchen, with a full size fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r286616575-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>286616575</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>DISGUSTING !!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>This is by Far the most Disgusting place ever.... from the moment you get oof the car its Nasaty , Stinks the people are rud and OMG ive never been to the worse place ever I Didnt even want to sit everything was Dirty, Stinky,Blood stains on the pillow casesjust Grossi grabbed my stuff and demanded a refund and left since leaving this place my throat has been hurting please dont waist your money NOR TIME ITS GROSS !!!!!!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r278462792-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>278462792</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>the worst place I've ever been to</t>
+  </si>
+  <si>
+    <t>do not come to this hotel I'm surprised that there is even still in business 215 is the room I stayed in and there is black mold on the ceiling cigarette marks all over the vanity graffiti inside of the lampshades just nastyI set my things down and took off when I came back a few hours later I noticed all the real nastyness about the room I tried to change room they told me to go to  218 I checked out that room and it was just as bad smells like urine I said no thanks they would not refund my money because he said I waited too long to tell them.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>do not come to this hotel I'm surprised that there is even still in business 215 is the room I stayed in and there is black mold on the ceiling cigarette marks all over the vanity graffiti inside of the lampshades just nastyI set my things down and took off when I came back a few hours later I noticed all the real nastyness about the room I tried to change room they told me to go to  218 I checked out that room and it was just as bad smells like urine I said no thanks they would not refund my money because he said I waited too long to tell them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r274821936-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>274821936</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>THE ONE CAPTAIN OBVIOUS WARNED YOU ABOUT</t>
+  </si>
+  <si>
+    <t>I booked online and they asked for $10 cash key deposit at check in (that should have been my first clue) dingy towels, the phone was dirty with buttons missing, no hot water, dirty water splashes on the walls, stale smoke smell in a non-smoking room. It took me a while to decide whether or not to stay. I called the front office on my cellphone (their room phone didn't work) and told them I was leaving and why. I left, didn't pass "GO" didn't collect my refund. Stay at your own peril.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r227982173-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>227982173</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel I've ever been to!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is the worst place to ever stay at. The service sucks they are rude don't get your reservation correct. They called room to kick us out even though had a week Reservation. The other people in rooms blare their music loudly so ya can't relax study watch TV or anythung. The housekeeping comes at 9 am everyday to ask if need service and no one is friendly. Ya feel unsafe and like can't walk outdoors without a gun or knife. It's not a place I suggest at all. The service doesn't even care and the WiFi doesn't work.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r217907563-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>217907563</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>The most ridiculous hotel I've ever been!!!!don't ever go to this hotel!!</t>
+  </si>
+  <si>
+    <t>We've been drivin all night and we're really tired so we decided to look for a not so expensive hotel and that was about 2 am in the morning. And also, since we're near to LA we wanted to stop by in Portos bakery so we passed by that Budget Hotel. We thought we're lucky, and my wife, coz the name itself fits what we're looking for, a room where we could rest for just 3-4 hrs. But oh God!!! As we opened the room, we really want to backed out, coz its scary, dirty and a bad smell from the room, bedsheets. It's an old smell like it was stuck for a long time. So my wife made a joke, we got what we paid for!!! Hahaha...so for me, Guys if you really want a place where you could stay and rest comfortably, not this place or else you'll go home with bedbug bites, I really suffered for how many days and the itches really make me swear that place!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We've been drivin all night and we're really tired so we decided to look for a not so expensive hotel and that was about 2 am in the morning. And also, since we're near to LA we wanted to stop by in Portos bakery so we passed by that Budget Hotel. We thought we're lucky, and my wife, coz the name itself fits what we're looking for, a room where we could rest for just 3-4 hrs. But oh God!!! As we opened the room, we really want to backed out, coz its scary, dirty and a bad smell from the room, bedsheets. It's an old smell like it was stuck for a long time. So my wife made a joke, we got what we paid for!!! Hahaha...so for me, Guys if you really want a place where you could stay and rest comfortably, not this place or else you'll go home with bedbug bites, I really suffered for how many days and the itches really make me swear that place!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r213551966-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>213551966</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>the most disgusting hotel I've ever been to. atrocious</t>
+  </si>
+  <si>
+    <t>this is the most unclean disturbing hotel I have ever been in not one item was cleaned it was disgusting one of the ships came up on the BET and there was blood all over the matress I'm disgusting and I felt unclean ever since we paid $70 for the nastiest thing that the grossest drug addicts shouldn't even be in</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r188828676-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>188828676</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>This hotel doesnt deserve a star.</t>
+  </si>
+  <si>
+    <t>I booked a suite on the 2nd floor through priceline. i dont know where to start, there is so much things wrong at this hotel. Bad customer service , dirty , non smoking rooms still smelled like smoke, condom wrappers in between the sofas, nothing works, crapy furniture, mold in bathrooms , prositutes and thugs hanging out in the hotel.  You really dont feel safe there. The hotel is privately owed by a indian couple who live on the sight. They really dont know how to speak to people. i know its cheap, but seriously not worth the stay, i would of rather paid more money elsewhere.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r187072739-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>187072739</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Fearful for my life</t>
+  </si>
+  <si>
+    <t>Were to start I dnt write a lot of reviews but this one took the prize in worst stay the fire alarm kept going off the sprinkler system turned on all of my family ran out with our lugage and all of the guest ran out also it kept turning on it was in december and the heater did not work so we called the hotel manager and he said he would fix it he walked in and said his exact words “I will be back let me go grab my tools" and he never returned me and my family had one of our coldest nights ever. Also my children and I took cold showers cause there was no hot water I would warn people to stay away from this hotel also extremely dirtyMoreShow less</t>
+  </si>
+  <si>
+    <t>Were to start I dnt write a lot of reviews but this one took the prize in worst stay the fire alarm kept going off the sprinkler system turned on all of my family ran out with our lugage and all of the guest ran out also it kept turning on it was in december and the heater did not work so we called the hotel manager and he said he would fix it he walked in and said his exact words “I will be back let me go grab my tools" and he never returned me and my family had one of our coldest nights ever. Also my children and I took cold showers cause there was no hot water I would warn people to stay away from this hotel also extremely dirtyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r185452582-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>185452582</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Not the worst</t>
+  </si>
+  <si>
+    <t>After booking this hotel for over a week on Expedia I became fearful after reading terrible after terrible review. Well We arrived late and were suprised to find an average hotel room. Nothing terrible nothing amazingly awesome. It was good enough for the low price I paid. No cockroaches, sand, or stains in my room.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r165480065-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>165480065</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Avoid this place!</t>
+  </si>
+  <si>
+    <t>Looks good on the outside but inside is horrible. The rooms are dirty and stained. The rugs and curtains are torn and ripped. The coffee is not free, and served in the smallest cups IN_LIFE. As a truck driver I settled for this. I just drove from Addison, Illinois to California and the other hotels/motels, and Holiday Inns in the area were booked. Next time, my Fiance and I will just sleep in the truck.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r164162970-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>164162970</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>"TOTALLY UNACCEPTABLE"</t>
+  </si>
+  <si>
+    <t>My fiance is a truck driver and he is based in Commerce Ca. we live in Bakersfield Ca. He comes home every other week, so the other week that he doesn't come home I go out there to him. So we arrive at The Budget Inn and Suites, Looks great from the out side. beautiful palm trees four stories high. So my fiance and I walk into this room 302 to be exact, horrible, from the curtains, to the carpet, i was totally disgusted. I wanted to leave my fiance said that every other hotel was sold out, booked had no open rooms. I rather have slept in the truck than stay here, When we tried calling the front desk clerk, we were sent to another guests room instead of the front desk. Because my fiance was exhausted we stayed and the phone didn't work, we were on the third floor we just went to sleep, when we showed the front desk clerk the pictures, and requested a complimentary room her response was "OH YEAH ROOM NEEDS WORK" NEVER AGAIN WILL WE STAY THERE WE WILL MAKE OUR RESERVATIONS IN ADVANCE...MoreShow less</t>
+  </si>
+  <si>
+    <t>My fiance is a truck driver and he is based in Commerce Ca. we live in Bakersfield Ca. He comes home every other week, so the other week that he doesn't come home I go out there to him. So we arrive at The Budget Inn and Suites, Looks great from the out side. beautiful palm trees four stories high. So my fiance and I walk into this room 302 to be exact, horrible, from the curtains, to the carpet, i was totally disgusted. I wanted to leave my fiance said that every other hotel was sold out, booked had no open rooms. I rather have slept in the truck than stay here, When we tried calling the front desk clerk, we were sent to another guests room instead of the front desk. Because my fiance was exhausted we stayed and the phone didn't work, we were on the third floor we just went to sleep, when we showed the front desk clerk the pictures, and requested a complimentary room her response was "OH YEAH ROOM NEEDS WORK" NEVER AGAIN WILL WE STAY THERE WE WILL MAKE OUR RESERVATIONS IN ADVANCE...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r134050040-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>134050040</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>"DON'T STAY HERE"</t>
+  </si>
+  <si>
+    <t>This place was the worst hotel i have ever ben too. We rented two rooms, upon getting in room there were roaches on the wall and blood on the pull out couch matress! After finding that we pulled back all the bedding and found hair and numerous stains on the old matresses! We were there for mabie 30 min went down to lobby to get our money back, and they refused to refund our money! He went up stairs to inspect said because we moved the bedding no refund.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r124225008-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>124225008</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>HATED IT!!! THIS IS NOT A THREE STAR</t>
+  </si>
+  <si>
+    <t>I'm begging you to please stay away from this hotel!!!! I ABSOLUTELY HATED IT....When I went into the room I almost cried because i was afraid to stay there by myself, SO I LEFT and went to another hotel. And they didn't want to check me out which I thought was terrible customer service and had to tell them that I spoke to my lawyer and it's wrong for them to refuse to check me out!!!!!! IT WAS JUST EXTREMELY TERRIBLE, PLEASE PLEASE PLEASE DON'T BOOK THIS HOTEL...IF THIS WAS MY FIRST TIME TO LOS ANGELES THIS WOULD HAVE RUINED MY EXPERIENCE BUT THANK GOODNESS IT WAS NOT! DON'T DO IT!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I'm begging you to please stay away from this hotel!!!! I ABSOLUTELY HATED IT....When I went into the room I almost cried because i was afraid to stay there by myself, SO I LEFT and went to another hotel. And they didn't want to check me out which I thought was terrible customer service and had to tell them that I spoke to my lawyer and it's wrong for them to refuse to check me out!!!!!! IT WAS JUST EXTREMELY TERRIBLE, PLEASE PLEASE PLEASE DON'T BOOK THIS HOTEL...IF THIS WAS MY FIRST TIME TO LOS ANGELES THIS WOULD HAVE RUINED MY EXPERIENCE BUT THANK GOODNESS IT WAS NOT! DON'T DO IT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r7844619-Studio_6_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>7844619</t>
+  </si>
+  <si>
+    <t>06/12/2007</t>
+  </si>
+  <si>
+    <t>Yuck!</t>
+  </si>
+  <si>
+    <t>I booked because the price was right &amp; it was a suite; but don't be fooled!  It is right, literally right off the freeway, but surprisingly not as noisy as I would have thought!  Not the best area, no amenities, nothing too close within walking distance for food. Right behind a gas station.  But, it was cheap &amp; my fault for not noticing that there was no pool.  Wouldn't recommend; seems to be better hotels in the same area.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1089,1276 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>14413</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_724.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_724.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jack v</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We were searching for a place in the area that accepted our dog. The reviews for the places in the area that took dogs were pretty bleak. This was the top of the ratings list. We would agree. We messed up the date and called the desk and they graciously changed for us. Room was clean and furnishings were a a notch above what we expected.  And a kitchen to boot. It is near a busy road but the sound was muffled enough that was not an issue. There were a couple grass areas for the dog and I am embarrassed that other dog owners had not picked up after themselves. If we want hotels to accept dogs we have a responsibility to not abuse that obligation. The price was very reasonable for this location. More</t>
   </si>
   <si>
+    <t>Maritza G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r536941949-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>The room has many utilities, good kitchen with stove, microwave, refrigerator, dishes that permites you to cook and keep your food fresh.  Also it has a good bed, clean towels, wifi conection, so you can work there if you want.More</t>
   </si>
   <si>
+    <t>Rhazy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r526400162-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>I was pleased with the room - it was clean and well equipped.  Directv.  Full size top freezer fridge.  The area was not the greatest (next to a freeway, somewhat shady characters in the vicinity).  But people, chill.  The price is very good.  The room is clean and the room was quiet despite being next to the 5 fwy.  You're not there to get to know the neighbors to take it for what it is - a rather inexpensive room that is actually quite nice.  You'll be gone in a day or 2 so don't be too picky!More</t>
   </si>
   <si>
+    <t>mmellott8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r495881270-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -279,6 +291,9 @@
     <t>Hotel is in a rough area of LA. And being by msyelf it didn't feel safe. The hotel does not have a laundry room for guests or a pool. And the parking lot is very SMALL. With that said the staff and owners are really nice. More</t>
   </si>
   <si>
+    <t>tomas3720martinez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r486150276-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>Freshly remodeled rooms, very clean and updated would definitely stay again. Very happy with room. Has standard full size fridge  stove has the feel of a small studio. Bathroom are updated and very clean. I love the hardwood floors no more smelly carpets.More</t>
   </si>
   <si>
+    <t>amber_jones1026</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r472573780-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -333,6 +351,9 @@
     <t>Enjoy my stay here very much. The front staff was nice and friendly. The rooms are a good size very comfortable bed and a nice bathroom with a good shower head . Nice kitchen, with a full size fridge.More</t>
   </si>
   <si>
+    <t>Cynthia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r286616575-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Neveragain8328</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r278462792-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>do not come to this hotel I'm surprised that there is even still in business 215 is the room I stayed in and there is black mold on the ceiling cigarette marks all over the vanity graffiti inside of the lampshades just nastyI set my things down and took off when I came back a few hours later I noticed all the real nastyness about the room I tried to change room they told me to go to  218 I checked out that room and it was just as bad smells like urine I said no thanks they would not refund my money because he said I waited too long to tell them.More</t>
   </si>
   <si>
+    <t>Johnnyrussell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r274821936-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>PLL_MAMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r227982173-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t xml:space="preserve">This place is the worst place to ever stay at. The service sucks they are rude don't get your reservation correct. They called room to kick us out even though had a week Reservation. The other people in rooms blare their music loudly so ya can't relax study watch TV or anythung. The housekeeping comes at 9 am everyday to ask if need service and no one is friendly. Ya feel unsafe and like can't walk outdoors without a gun or knife. It's not a place I suggest at all. The service doesn't even care and the WiFi doesn't work.  </t>
   </si>
   <si>
+    <t>Emily T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r217907563-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>We've been drivin all night and we're really tired so we decided to look for a not so expensive hotel and that was about 2 am in the morning. And also, since we're near to LA we wanted to stop by in Portos bakery so we passed by that Budget Hotel. We thought we're lucky, and my wife, coz the name itself fits what we're looking for, a room where we could rest for just 3-4 hrs. But oh God!!! As we opened the room, we really want to backed out, coz its scary, dirty and a bad smell from the room, bedsheets. It's an old smell like it was stuck for a long time. So my wife made a joke, we got what we paid for!!! Hahaha...so for me, Guys if you really want a place where you could stay and rest comfortably, not this place or else you'll go home with bedbug bites, I really suffered for how many days and the itches really make me swear that place!!!!More</t>
   </si>
   <si>
+    <t>lz123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r213551966-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>this is the most unclean disturbing hotel I have ever been in not one item was cleaned it was disgusting one of the ships came up on the BET and there was blood all over the matress I'm disgusting and I felt unclean ever since we paid $70 for the nastiest thing that the grossest drug addicts shouldn't even be in</t>
   </si>
   <si>
+    <t>Rick R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r188828676-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>teb209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r187072739-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -480,6 +522,9 @@
     <t>Were to start I dnt write a lot of reviews but this one took the prize in worst stay the fire alarm kept going off the sprinkler system turned on all of my family ran out with our lugage and all of the guest ran out also it kept turning on it was in december and the heater did not work so we called the hotel manager and he said he would fix it he walked in and said his exact words “I will be back let me go grab my tools" and he never returned me and my family had one of our coldest nights ever. Also my children and I took cold showers cause there was no hot water I would warn people to stay away from this hotel also extremely dirtyMore</t>
   </si>
   <si>
+    <t>Ashley J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r185452582-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -498,6 +543,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Dwayne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r165480065-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -516,6 +564,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Mommanell T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r164162970-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -534,6 +585,9 @@
     <t>My fiance is a truck driver and he is based in Commerce Ca. we live in Bakersfield Ca. He comes home every other week, so the other week that he doesn't come home I go out there to him. So we arrive at The Budget Inn and Suites, Looks great from the out side. beautiful palm trees four stories high. So my fiance and I walk into this room 302 to be exact, horrible, from the curtains, to the carpet, i was totally disgusted. I wanted to leave my fiance said that every other hotel was sold out, booked had no open rooms. I rather have slept in the truck than stay here, When we tried calling the front desk clerk, we were sent to another guests room instead of the front desk. Because my fiance was exhausted we stayed and the phone didn't work, we were on the third floor we just went to sleep, when we showed the front desk clerk the pictures, and requested a complimentary room her response was "OH YEAH ROOM NEEDS WORK" NEVER AGAIN WILL WE STAY THERE WE WILL MAKE OUR RESERVATIONS IN ADVANCE...More</t>
   </si>
   <si>
+    <t>dietch75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r134050040-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -552,6 +606,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>qube30815</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r124225008-Studio_6_Commerce-Commerce_California.html</t>
   </si>
   <si>
@@ -571,6 +628,9 @@
   </si>
   <si>
     <t>I'm begging you to please stay away from this hotel!!!! I ABSOLUTELY HATED IT....When I went into the room I almost cried because i was afraid to stay there by myself, SO I LEFT and went to another hotel. And they didn't want to check me out which I thought was terrible customer service and had to tell them that I spoke to my lawyer and it's wrong for them to refuse to check me out!!!!!! IT WAS JUST EXTREMELY TERRIBLE, PLEASE PLEASE PLEASE DON'T BOOK THIS HOTEL...IF THIS WAS MY FIRST TIME TO LOS ANGELES THIS WOULD HAVE RUINED MY EXPERIENCE BUT THANK GOODNESS IT WAS NOT! DON'T DO IT!More</t>
+  </si>
+  <si>
+    <t>doozi</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32240-d239823-r7844619-Studio_6_Commerce-Commerce_California.html</t>
@@ -1093,43 +1153,47 @@
       <c r="A2" t="n">
         <v>14413</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1141,56 +1205,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>14413</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1202,56 +1270,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>14413</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1269,56 +1341,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>14413</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1330,56 +1406,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>14413</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1391,56 +1471,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>14413</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1452,56 +1536,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>14413</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1521,50 +1609,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>14413</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1578,50 +1670,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>14413</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1641,41 +1737,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>14413</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -1704,50 +1804,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>14413</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1767,41 +1871,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>14413</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1830,50 +1938,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>14413</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1897,50 +2009,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14413</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1954,50 +2070,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14413</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2021,50 +2141,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14413</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2088,50 +2212,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>14413</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2155,50 +2283,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>14413</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2222,50 +2354,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>14413</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2289,50 +2425,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>14413</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2356,7 +2496,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
